--- a/Eil/03.Bảng giá-220616.xlsx
+++ b/Eil/03.Bảng giá-220616.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="243">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -743,16 +743,29 @@
   </si>
   <si>
     <t>EWX (Kg)</t>
+  </si>
+  <si>
+    <t>525kg</t>
+  </si>
+  <si>
+    <t>1100kg</t>
+  </si>
+  <si>
+    <t>6000kg</t>
+  </si>
+  <si>
+    <t>VND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -835,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -921,13 +934,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1048,6 +1070,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1113,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3535,12 +3567,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="U57" sqref="U57"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3555,31 +3587,31 @@
     <col min="9" max="9" width="8.88671875" style="33" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="8.5546875" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="36" customWidth="1"/>
-    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
     <col min="14" max="14" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3592,105 +3624,127 @@
       <c r="J2" s="25"/>
       <c r="K2" s="26"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="57" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="56"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="S4" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="U4" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="V4" s="54"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="71">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="67"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -3749,11 +3803,40 @@
         <f>N7/O7-100%</f>
         <v>0.25090909090909097</v>
       </c>
-      <c r="R7" s="66" t="s">
+      <c r="R7" s="67" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="18">
+        <f>$M7*0.95</f>
+        <v>29640</v>
+      </c>
+      <c r="T7" s="18">
+        <f>$M7*0.9</f>
+        <v>28080</v>
+      </c>
+      <c r="U7" s="18">
+        <f>$M7*0.85</f>
+        <v>26520</v>
+      </c>
+      <c r="V7" s="18">
+        <f>U7-N7</f>
+        <v>-1000</v>
+      </c>
+      <c r="W7" s="18"/>
+      <c r="X7" s="70">
+        <f>ROUND(S7/$X$5,2)</f>
+        <v>1.26</v>
+      </c>
+      <c r="Y7" s="70">
+        <f t="shared" ref="Y7:Z7" si="4">ROUND(T7/$X$5,2)</f>
+        <v>1.19</v>
+      </c>
+      <c r="Z7" s="70">
+        <f t="shared" si="4"/>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -3794,7 +3877,7 @@
         <v>49000</v>
       </c>
       <c r="M8" s="19">
-        <f t="shared" ref="M8:M21" si="4">L8*0.8</f>
+        <f t="shared" ref="M8:M21" si="5">L8*0.8</f>
         <v>39200</v>
       </c>
       <c r="N8" s="5">
@@ -3809,12 +3892,41 @@
         <v>10320</v>
       </c>
       <c r="Q8" s="52">
-        <f t="shared" ref="Q8:Q60" si="5">N8/O8-100%</f>
+        <f t="shared" ref="Q8:Q60" si="6">N8/O8-100%</f>
         <v>0.469090909090909</v>
       </c>
-      <c r="R8" s="66"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R8" s="67"/>
+      <c r="S8" s="18">
+        <f t="shared" ref="S8:S60" si="7">$M8*0.95</f>
+        <v>37240</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" ref="T8:T60" si="8">$M8*0.9</f>
+        <v>35280</v>
+      </c>
+      <c r="U8" s="18">
+        <f t="shared" ref="U8:U60" si="9">$M8*0.85</f>
+        <v>33320</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" ref="V8:V60" si="10">U8-N8</f>
+        <v>1000</v>
+      </c>
+      <c r="W8" s="18"/>
+      <c r="X8" s="70">
+        <f t="shared" ref="X8:X11" si="11">ROUND(S8/$X$5,2)</f>
+        <v>1.58</v>
+      </c>
+      <c r="Y8" s="70">
+        <f t="shared" ref="Y8:Y11" si="12">ROUND(T8/$X$5,2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Z8" s="70">
+        <f t="shared" ref="Z8:Z11" si="13">ROUND(U8/$X$5,2)</f>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -3855,7 +3967,7 @@
         <v>48000</v>
       </c>
       <c r="M9" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38400</v>
       </c>
       <c r="N9" s="5">
@@ -3870,12 +3982,41 @@
         <v>9840</v>
       </c>
       <c r="Q9" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.44727272727272727</v>
       </c>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R9" s="67"/>
+      <c r="S9" s="18">
+        <f t="shared" si="7"/>
+        <v>36480</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="8"/>
+        <v>34560</v>
+      </c>
+      <c r="U9" s="18">
+        <f t="shared" si="9"/>
+        <v>32640</v>
+      </c>
+      <c r="V9" s="18">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="W9" s="18"/>
+      <c r="X9" s="70">
+        <f t="shared" si="11"/>
+        <v>1.55</v>
+      </c>
+      <c r="Y9" s="70">
+        <f t="shared" si="12"/>
+        <v>1.47</v>
+      </c>
+      <c r="Z9" s="70">
+        <f t="shared" si="13"/>
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -3916,7 +4057,7 @@
         <v>47000</v>
       </c>
       <c r="M10" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37600</v>
       </c>
       <c r="N10" s="5">
@@ -3931,12 +4072,41 @@
         <v>9360</v>
       </c>
       <c r="Q10" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.42545454545454553</v>
       </c>
-      <c r="R10" s="66"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R10" s="67"/>
+      <c r="S10" s="18">
+        <f t="shared" si="7"/>
+        <v>35720</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="8"/>
+        <v>33840</v>
+      </c>
+      <c r="U10" s="18">
+        <f t="shared" si="9"/>
+        <v>31960</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="W10" s="18"/>
+      <c r="X10" s="70">
+        <f t="shared" si="11"/>
+        <v>1.52</v>
+      </c>
+      <c r="Y10" s="70">
+        <f t="shared" si="12"/>
+        <v>1.44</v>
+      </c>
+      <c r="Z10" s="70">
+        <f t="shared" si="13"/>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -3951,7 +4121,7 @@
         <v xml:space="preserve"> 1000GR</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" ref="E11:E20" si="6">LEFT(D11,LEN(D11)-2)</f>
+        <f t="shared" ref="E11:E20" si="14">LEFT(D11,LEN(D11)-2)</f>
         <v xml:space="preserve"> 1000</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -3977,7 +4147,7 @@
         <v>40000</v>
       </c>
       <c r="M11" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32000</v>
       </c>
       <c r="N11" s="5">
@@ -3992,12 +4162,41 @@
         <v>6000</v>
       </c>
       <c r="Q11" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="R11" s="66"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" s="67"/>
+      <c r="S11" s="18">
+        <f t="shared" si="7"/>
+        <v>30400</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="8"/>
+        <v>28800</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="9"/>
+        <v>27200</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" si="10"/>
+        <v>-800</v>
+      </c>
+      <c r="W11" s="18"/>
+      <c r="X11" s="70">
+        <f t="shared" si="11"/>
+        <v>1.29</v>
+      </c>
+      <c r="Y11" s="70">
+        <f t="shared" si="12"/>
+        <v>1.23</v>
+      </c>
+      <c r="Z11" s="70">
+        <f t="shared" si="13"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -4012,14 +4211,14 @@
         <v xml:space="preserve"> 500GR</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 500</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>138</v>
       </c>
       <c r="G12" s="32">
-        <f t="shared" ref="G12:G13" si="7">ROUND(I12*6,0)</f>
+        <f t="shared" ref="G12:G13" si="15">ROUND(I12*6,0)</f>
         <v>24</v>
       </c>
       <c r="H12" s="27" t="s">
@@ -4040,7 +4239,7 @@
         <v>40000</v>
       </c>
       <c r="M12" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32000</v>
       </c>
       <c r="N12" s="5">
@@ -4055,12 +4254,29 @@
         <v>6000</v>
       </c>
       <c r="Q12" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="67"/>
+      <c r="S12" s="18">
+        <f t="shared" si="7"/>
+        <v>30400</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="8"/>
+        <v>28800</v>
+      </c>
+      <c r="U12" s="18">
+        <f t="shared" si="9"/>
+        <v>27200</v>
+      </c>
+      <c r="V12" s="18">
+        <f t="shared" si="10"/>
+        <v>-800</v>
+      </c>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -4075,14 +4291,14 @@
         <v xml:space="preserve"> 250GR</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 250</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="H13" s="27" t="s">
@@ -4103,7 +4319,7 @@
         <v>41000</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32800</v>
       </c>
       <c r="N13" s="5">
@@ -4118,12 +4334,29 @@
         <v>6480</v>
       </c>
       <c r="Q13" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29454545454545444</v>
       </c>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="67"/>
+      <c r="S13" s="18">
+        <f t="shared" si="7"/>
+        <v>31160</v>
+      </c>
+      <c r="T13" s="18">
+        <f t="shared" si="8"/>
+        <v>29520</v>
+      </c>
+      <c r="U13" s="18">
+        <f t="shared" si="9"/>
+        <v>27880</v>
+      </c>
+      <c r="V13" s="18">
+        <f t="shared" si="10"/>
+        <v>-600</v>
+      </c>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -4138,7 +4371,7 @@
         <v xml:space="preserve"> 200GR</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 200</v>
       </c>
       <c r="F14" s="37" t="s">
@@ -4166,7 +4399,7 @@
         <v>42000</v>
       </c>
       <c r="M14" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33600</v>
       </c>
       <c r="N14" s="5">
@@ -4181,12 +4414,29 @@
         <v>6960</v>
       </c>
       <c r="Q14" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3163636363636364</v>
       </c>
-      <c r="R14" s="66"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="67"/>
+      <c r="S14" s="18">
+        <f t="shared" si="7"/>
+        <v>31920</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" si="8"/>
+        <v>30240</v>
+      </c>
+      <c r="U14" s="18">
+        <f t="shared" si="9"/>
+        <v>28560</v>
+      </c>
+      <c r="V14" s="18">
+        <f t="shared" si="10"/>
+        <v>-400</v>
+      </c>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -4201,21 +4451,21 @@
         <v xml:space="preserve"> 100GR</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 100</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G15" s="32">
-        <f t="shared" ref="G15:G18" si="8">ROUND(I15*4,0)</f>
+        <f t="shared" ref="G15:G18" si="16">ROUND(I15*4,0)</f>
         <v>100</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" ref="I15:I21" si="9">1000/E15*2.5</f>
+        <f t="shared" ref="I15:I21" si="17">1000/E15*2.5</f>
         <v>25</v>
       </c>
       <c r="J15" s="29">
@@ -4229,7 +4479,7 @@
         <v>44000</v>
       </c>
       <c r="M15" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35200</v>
       </c>
       <c r="N15" s="5">
@@ -4244,12 +4494,29 @@
         <v>7920</v>
       </c>
       <c r="Q15" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="R15" s="66"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15" s="67"/>
+      <c r="S15" s="18">
+        <f t="shared" si="7"/>
+        <v>33440</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="8"/>
+        <v>31680</v>
+      </c>
+      <c r="U15" s="18">
+        <f t="shared" si="9"/>
+        <v>29920</v>
+      </c>
+      <c r="V15" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -4271,14 +4538,14 @@
         <v>116</v>
       </c>
       <c r="G16" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>200</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="J16" s="29">
@@ -4292,7 +4559,7 @@
         <v>46000</v>
       </c>
       <c r="M16" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36800</v>
       </c>
       <c r="N16" s="5">
@@ -4307,12 +4574,29 @@
         <v>8880</v>
       </c>
       <c r="Q16" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40363636363636357</v>
       </c>
-      <c r="R16" s="66"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R16" s="67"/>
+      <c r="S16" s="18">
+        <f t="shared" si="7"/>
+        <v>34960</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="8"/>
+        <v>33120</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="9"/>
+        <v>31280</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4327,21 +4611,21 @@
         <v xml:space="preserve"> 25GR</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 25</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G17" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="J17" s="29">
@@ -4355,7 +4639,7 @@
         <v>49000</v>
       </c>
       <c r="M17" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39200</v>
       </c>
       <c r="N17" s="5">
@@ -4370,12 +4654,29 @@
         <v>10320</v>
       </c>
       <c r="Q17" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.469090909090909</v>
       </c>
-      <c r="R17" s="66"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R17" s="67"/>
+      <c r="S17" s="18">
+        <f t="shared" si="7"/>
+        <v>37240</v>
+      </c>
+      <c r="T17" s="18">
+        <f t="shared" si="8"/>
+        <v>35280</v>
+      </c>
+      <c r="U17" s="18">
+        <f t="shared" si="9"/>
+        <v>33320</v>
+      </c>
+      <c r="V17" s="18">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4390,21 +4691,21 @@
         <v xml:space="preserve"> 20GR</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 20</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>118</v>
       </c>
       <c r="G18" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>200</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>125</v>
       </c>
       <c r="J18" s="29">
@@ -4418,7 +4719,7 @@
         <v>50000</v>
       </c>
       <c r="M18" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40000</v>
       </c>
       <c r="N18" s="5">
@@ -4436,9 +4737,26 @@
         <f>N18/O18-100%</f>
         <v>0.49090909090909096</v>
       </c>
-      <c r="R18" s="66"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R18" s="67"/>
+      <c r="S18" s="18">
+        <f t="shared" si="7"/>
+        <v>38000</v>
+      </c>
+      <c r="T18" s="18">
+        <f t="shared" si="8"/>
+        <v>36000</v>
+      </c>
+      <c r="U18" s="18">
+        <f t="shared" si="9"/>
+        <v>34000</v>
+      </c>
+      <c r="V18" s="18">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4453,7 +4771,7 @@
         <v xml:space="preserve"> 10GR</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 10</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -4467,7 +4785,7 @@
         <v>200</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
       <c r="J19" s="29">
@@ -4481,7 +4799,7 @@
         <v>54000</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43200</v>
       </c>
       <c r="N19" s="5">
@@ -4496,12 +4814,29 @@
         <v>12720</v>
       </c>
       <c r="Q19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57818181818181813</v>
       </c>
-      <c r="R19" s="66"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R19" s="67"/>
+      <c r="S19" s="18">
+        <f t="shared" si="7"/>
+        <v>41040</v>
+      </c>
+      <c r="T19" s="18">
+        <f t="shared" si="8"/>
+        <v>38880</v>
+      </c>
+      <c r="U19" s="18">
+        <f t="shared" si="9"/>
+        <v>36720</v>
+      </c>
+      <c r="V19" s="18">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -4516,7 +4851,7 @@
         <v xml:space="preserve"> 5GR</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve"> 5</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -4530,7 +4865,7 @@
         <v>199</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>500</v>
       </c>
       <c r="J20" s="29">
@@ -4544,7 +4879,7 @@
         <v>68000</v>
       </c>
       <c r="M20" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54400</v>
       </c>
       <c r="N20" s="5">
@@ -4562,9 +4897,26 @@
         <f>N20/O20-100%</f>
         <v>0.88363636363636355</v>
       </c>
-      <c r="R20" s="66"/>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="67"/>
+      <c r="S20" s="18">
+        <f t="shared" si="7"/>
+        <v>51680</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="8"/>
+        <v>48960</v>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="9"/>
+        <v>46240</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="10"/>
+        <v>4800</v>
+      </c>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -4593,7 +4945,7 @@
         <v>199</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1250</v>
       </c>
       <c r="J21" s="31">
@@ -4607,7 +4959,7 @@
         <v>114000</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91200</v>
       </c>
       <c r="N21" s="5">
@@ -4622,25 +4974,42 @@
         <v>41520</v>
       </c>
       <c r="Q21" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8872727272727272</v>
       </c>
-      <c r="R21" s="66"/>
-    </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="R21" s="67"/>
+      <c r="S21" s="18">
+        <f t="shared" si="7"/>
+        <v>86640</v>
+      </c>
+      <c r="T21" s="18">
+        <f t="shared" si="8"/>
+        <v>82080</v>
+      </c>
+      <c r="U21" s="18">
+        <f t="shared" si="9"/>
+        <v>77520</v>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="10"/>
+        <v>14000</v>
+      </c>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
       <c r="N22" s="46"/>
@@ -4648,8 +5017,25 @@
       <c r="P22" s="40"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
-    </row>
-    <row r="23" spans="1:18" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S22" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -4660,7 +5046,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="42" t="str">
-        <f t="shared" ref="D23:D34" si="10">RIGHT(C23,LEN(C23)-5)</f>
+        <f t="shared" ref="D23:D34" si="18">RIGHT(C23,LEN(C23)-5)</f>
         <v>2000GR</v>
       </c>
       <c r="E23" s="4" t="str">
@@ -4680,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="31">
-        <f t="shared" ref="J23:J35" si="11">G23*E23/1000</f>
+        <f t="shared" ref="J23:J35" si="19">G23*E23/1000</f>
         <v>20</v>
       </c>
       <c r="K23" s="30" t="s">
@@ -4694,24 +5080,41 @@
         <v>21120</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" ref="N23:N35" si="12">O23+P23</f>
+        <f t="shared" ref="N23:N35" si="20">O23+P23</f>
         <v>21010</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" ref="O23:O35" si="13">L23-2000</f>
+        <f t="shared" ref="O23:O35" si="21">L23-2000</f>
         <v>20000</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" ref="P23:P35" si="14">ROUND((M23-O23)*0.9,-1)</f>
+        <f t="shared" ref="P23:P35" si="22">ROUND((M23-O23)*0.9,-1)</f>
         <v>1010</v>
       </c>
       <c r="Q23" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S23" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T23" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -4722,7 +5125,7 @@
         <v>109</v>
       </c>
       <c r="D24" s="42" t="str">
-        <f t="shared" ref="D24" si="15">RIGHT(C24,LEN(C24)-5)</f>
+        <f t="shared" ref="D24" si="23">RIGHT(C24,LEN(C24)-5)</f>
         <v>1000GR - 4 túi</v>
       </c>
       <c r="E24" s="4" t="str">
@@ -4742,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="K24" s="30" t="s">
@@ -4752,28 +5155,45 @@
         <v>22000</v>
       </c>
       <c r="M24" s="19">
-        <f t="shared" ref="M24:M35" si="16">L24*0.96</f>
+        <f t="shared" ref="M24:M35" si="24">L24*0.96</f>
         <v>21120</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O24" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q24" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S24" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T24" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -4784,7 +5204,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1000GR</v>
       </c>
       <c r="E25" s="4" t="str">
@@ -4804,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="K25" s="30" t="s">
@@ -4814,28 +5234,45 @@
         <v>20000</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>19200</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>19080</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>18000</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1080</v>
       </c>
       <c r="Q25" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S25" s="18">
+        <f t="shared" si="7"/>
+        <v>18240</v>
+      </c>
+      <c r="T25" s="18">
+        <f t="shared" si="8"/>
+        <v>17280</v>
+      </c>
+      <c r="U25" s="18">
+        <f t="shared" si="9"/>
+        <v>16320</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" si="10"/>
+        <v>-2760</v>
+      </c>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -4846,11 +5283,11 @@
         <v>50</v>
       </c>
       <c r="D26" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>500GR</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" ref="E26:E50" si="17">LEFT(D26,LEN(D26)-2)</f>
+        <f t="shared" ref="E26:E50" si="25">LEFT(D26,LEN(D26)-2)</f>
         <v>500</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -4864,7 +5301,7 @@
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="K26" s="30" t="s">
@@ -4874,28 +5311,45 @@
         <v>22000</v>
       </c>
       <c r="M26" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>21120</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O26" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P26" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q26" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T26" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U26" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -4906,11 +5360,11 @@
         <v>51</v>
       </c>
       <c r="D27" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>200GR</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -4924,7 +5378,7 @@
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="K27" s="30" t="s">
@@ -4934,28 +5388,45 @@
         <v>22000</v>
       </c>
       <c r="M27" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>21120</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O27" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P27" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q27" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S27" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T27" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U27" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V27" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -4966,11 +5437,11 @@
         <v>52</v>
       </c>
       <c r="D28" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>100GR</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -4988,7 +5459,7 @@
         <v>80</v>
       </c>
       <c r="J28" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="K28" s="30" t="s">
@@ -4998,28 +5469,45 @@
         <v>22000</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>21120</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q28" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S28" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T28" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V28" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -5030,18 +5518,18 @@
         <v>53</v>
       </c>
       <c r="D29" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>50GR</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" ref="G29:G32" si="18">ROUND(I29*3,0)</f>
+        <f t="shared" ref="G29:G32" si="26">ROUND(I29*3,0)</f>
         <v>480</v>
       </c>
       <c r="H29" s="30" t="s">
@@ -5052,7 +5540,7 @@
         <v>160</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="K29" s="30" t="s">
@@ -5062,28 +5550,45 @@
         <v>22000</v>
       </c>
       <c r="M29" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>21120</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O29" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P29" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q29" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S29" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T29" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V29" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>8</v>
       </c>
@@ -5094,18 +5599,18 @@
         <v>54</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>20GR</v>
       </c>
       <c r="E30" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>124</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="H30" s="30" t="s">
@@ -5116,7 +5621,7 @@
         <v>400</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="K30" s="30" t="s">
@@ -5126,28 +5631,45 @@
         <v>22000</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>21120</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>21010</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>1010</v>
       </c>
       <c r="Q30" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0499999999999989E-2</v>
       </c>
       <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S30" s="18">
+        <f t="shared" si="7"/>
+        <v>20064</v>
+      </c>
+      <c r="T30" s="18">
+        <f t="shared" si="8"/>
+        <v>19008</v>
+      </c>
+      <c r="U30" s="18">
+        <f t="shared" si="9"/>
+        <v>17952</v>
+      </c>
+      <c r="V30" s="18">
+        <f t="shared" si="10"/>
+        <v>-3058</v>
+      </c>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>9</v>
       </c>
@@ -5158,18 +5680,18 @@
         <v>55</v>
       </c>
       <c r="D31" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>10GR</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G31" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2100</v>
       </c>
       <c r="H31" s="30" t="s">
@@ -5180,7 +5702,7 @@
         <v>700</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="K31" s="30" t="s">
@@ -5190,28 +5712,45 @@
         <v>24000</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>23040</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>22940</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>22000</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>940</v>
       </c>
       <c r="Q31" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2727272727272725E-2</v>
       </c>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S31" s="18">
+        <f t="shared" si="7"/>
+        <v>21888</v>
+      </c>
+      <c r="T31" s="18">
+        <f t="shared" si="8"/>
+        <v>20736</v>
+      </c>
+      <c r="U31" s="18">
+        <f t="shared" si="9"/>
+        <v>19584</v>
+      </c>
+      <c r="V31" s="18">
+        <f t="shared" si="10"/>
+        <v>-3356</v>
+      </c>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10</v>
       </c>
@@ -5222,18 +5761,18 @@
         <v>56</v>
       </c>
       <c r="D32" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5GR</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3600</v>
       </c>
       <c r="H32" s="30" t="s">
@@ -5244,7 +5783,7 @@
         <v>1200</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="K32" s="30" t="s">
@@ -5254,28 +5793,45 @@
         <v>24000</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>23040</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>22940</v>
       </c>
       <c r="O32" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>22000</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>940</v>
       </c>
       <c r="Q32" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2727272727272725E-2</v>
       </c>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S32" s="18">
+        <f t="shared" si="7"/>
+        <v>21888</v>
+      </c>
+      <c r="T32" s="18">
+        <f t="shared" si="8"/>
+        <v>20736</v>
+      </c>
+      <c r="U32" s="18">
+        <f t="shared" si="9"/>
+        <v>19584</v>
+      </c>
+      <c r="V32" s="18">
+        <f t="shared" si="10"/>
+        <v>-3356</v>
+      </c>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -5286,11 +5842,11 @@
         <v>57</v>
       </c>
       <c r="D33" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3GR</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -5308,7 +5864,7 @@
         <v>2000</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="K33" s="30" t="s">
@@ -5318,28 +5874,45 @@
         <v>35000</v>
       </c>
       <c r="M33" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33600</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>33540</v>
       </c>
       <c r="O33" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>33000</v>
       </c>
       <c r="P33" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>540</v>
       </c>
       <c r="Q33" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6363636363636358E-2</v>
       </c>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="18">
+        <f t="shared" si="7"/>
+        <v>31920</v>
+      </c>
+      <c r="T33" s="18">
+        <f t="shared" si="8"/>
+        <v>30240</v>
+      </c>
+      <c r="U33" s="18">
+        <f t="shared" si="9"/>
+        <v>28560</v>
+      </c>
+      <c r="V33" s="18">
+        <f t="shared" si="10"/>
+        <v>-4980</v>
+      </c>
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>12</v>
       </c>
@@ -5350,11 +5923,11 @@
         <v>58</v>
       </c>
       <c r="D34" s="42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2GR</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -5372,7 +5945,7 @@
         <v>3000</v>
       </c>
       <c r="J34" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="K34" s="30" t="s">
@@ -5382,28 +5955,45 @@
         <v>35000</v>
       </c>
       <c r="M34" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33600</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>33540</v>
       </c>
       <c r="O34" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>33000</v>
       </c>
       <c r="P34" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>540</v>
       </c>
       <c r="Q34" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6363636363636358E-2</v>
       </c>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="18">
+        <f t="shared" si="7"/>
+        <v>31920</v>
+      </c>
+      <c r="T34" s="18">
+        <f t="shared" si="8"/>
+        <v>30240</v>
+      </c>
+      <c r="U34" s="18">
+        <f t="shared" si="9"/>
+        <v>28560</v>
+      </c>
+      <c r="V34" s="18">
+        <f t="shared" si="10"/>
+        <v>-4980</v>
+      </c>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>13</v>
       </c>
@@ -5414,11 +6004,11 @@
         <v>234</v>
       </c>
       <c r="D35" s="42" t="str">
-        <f t="shared" ref="D35" si="19">RIGHT(C35,LEN(C35)-5)</f>
+        <f t="shared" ref="D35" si="27">RIGHT(C35,LEN(C35)-5)</f>
         <v>1,4GR</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f t="shared" ref="E35" si="20">LEFT(D35,LEN(D35)-2)</f>
+        <f t="shared" ref="E35" si="28">LEFT(D35,LEN(D35)-2)</f>
         <v>1,4</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -5436,7 +6026,7 @@
         <v>3571.4285714285716</v>
       </c>
       <c r="J35" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>20.000399999999999</v>
       </c>
       <c r="K35" s="30" t="s">
@@ -5446,41 +6036,58 @@
         <v>35000</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33600</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>33540</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>33000</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>540</v>
       </c>
       <c r="Q35" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6363636363636358E-2</v>
       </c>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="S35" s="18">
+        <f t="shared" si="7"/>
+        <v>31920</v>
+      </c>
+      <c r="T35" s="18">
+        <f t="shared" si="8"/>
+        <v>30240</v>
+      </c>
+      <c r="U35" s="18">
+        <f t="shared" si="9"/>
+        <v>28560</v>
+      </c>
+      <c r="V35" s="18">
+        <f t="shared" si="10"/>
+        <v>-4980</v>
+      </c>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="17"/>
@@ -5488,8 +6095,25 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S36" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -5500,7 +6124,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="42" t="str">
-        <f t="shared" ref="D37:D50" si="21">RIGHT(C37,LEN(C37)-11)</f>
+        <f t="shared" ref="D37:D50" si="29">RIGHT(C37,LEN(C37)-11)</f>
         <v>1000GR - 4 túi</v>
       </c>
       <c r="E37" s="4" t="str">
@@ -5520,7 +6144,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="31">
-        <f t="shared" ref="J37:J50" si="22">G37*E37/1000</f>
+        <f t="shared" ref="J37:J50" si="30">G37*E37/1000</f>
         <v>18</v>
       </c>
       <c r="K37" s="30" t="s">
@@ -5534,24 +6158,41 @@
         <v>43120</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:N50" si="23">O37+P37</f>
+        <f t="shared" ref="N37:N50" si="31">O37+P37</f>
         <v>43010</v>
       </c>
       <c r="O37" s="19">
-        <f t="shared" ref="O37:O50" si="24">L37-2000</f>
+        <f t="shared" ref="O37:O50" si="32">L37-2000</f>
         <v>42000</v>
       </c>
       <c r="P37" s="19">
-        <f t="shared" ref="P37:P50" si="25">ROUND((M37-O37)*0.9,-1)</f>
+        <f t="shared" ref="P37:P50" si="33">ROUND((M37-O37)*0.9,-1)</f>
         <v>1010</v>
       </c>
       <c r="Q37" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T37" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U37" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V37" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -5582,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="K38" s="30" t="s">
@@ -5592,28 +6233,45 @@
         <v>44000</v>
       </c>
       <c r="M38" s="19">
-        <f t="shared" ref="M38:M50" si="26">L38*0.98</f>
+        <f t="shared" ref="M38:M50" si="34">L38*0.98</f>
         <v>43120</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O38" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P38" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q38" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S38" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T38" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U38" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V38" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>3</v>
       </c>
@@ -5644,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="K39" s="30" t="s">
@@ -5654,28 +6312,45 @@
         <v>42000</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>41160</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>41040</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>40000</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1040</v>
       </c>
       <c r="Q39" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6000000000000023E-2</v>
       </c>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S39" s="18">
+        <f t="shared" si="7"/>
+        <v>39102</v>
+      </c>
+      <c r="T39" s="18">
+        <f t="shared" si="8"/>
+        <v>37044</v>
+      </c>
+      <c r="U39" s="18">
+        <f t="shared" si="9"/>
+        <v>34986</v>
+      </c>
+      <c r="V39" s="18">
+        <f t="shared" si="10"/>
+        <v>-6054</v>
+      </c>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -5686,11 +6361,11 @@
         <v>12</v>
       </c>
       <c r="D40" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>500GR</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -5704,7 +6379,7 @@
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="K40" s="30" t="s">
@@ -5714,28 +6389,45 @@
         <v>44000</v>
       </c>
       <c r="M40" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O40" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P40" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q40" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S40" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T40" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U40" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V40" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -5746,11 +6438,11 @@
         <v>13</v>
       </c>
       <c r="D41" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>200GR</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -5764,7 +6456,7 @@
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="K41" s="30" t="s">
@@ -5774,28 +6466,45 @@
         <v>44000</v>
       </c>
       <c r="M41" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O41" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P41" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q41" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S41" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T41" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U41" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V41" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -5806,11 +6515,11 @@
         <v>14</v>
       </c>
       <c r="D42" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>100GR</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -5824,11 +6533,11 @@
         <v>200</v>
       </c>
       <c r="I42" s="28">
-        <f t="shared" ref="I42:I49" si="27">1000/E42*2.5</f>
+        <f t="shared" ref="I42:I49" si="35">1000/E42*2.5</f>
         <v>25</v>
       </c>
       <c r="J42" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="K42" s="30" t="s">
@@ -5838,28 +6547,45 @@
         <v>44000</v>
       </c>
       <c r="M42" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O42" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P42" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q42" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S42" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T42" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U42" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V42" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7</v>
       </c>
@@ -5870,29 +6596,29 @@
         <v>15</v>
       </c>
       <c r="D43" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>50GR</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="32">
-        <f t="shared" ref="G43:G46" si="28">ROUND(I43*12,0)</f>
+        <f t="shared" ref="G43:G46" si="36">ROUND(I43*12,0)</f>
         <v>600</v>
       </c>
       <c r="H43" s="30" t="s">
         <v>200</v>
       </c>
       <c r="I43" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>50</v>
       </c>
       <c r="J43" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="K43" s="30" t="s">
@@ -5902,28 +6628,45 @@
         <v>44000</v>
       </c>
       <c r="M43" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O43" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P43" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q43" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T43" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U43" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V43" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>8</v>
       </c>
@@ -5934,29 +6677,29 @@
         <v>17</v>
       </c>
       <c r="D44" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>25GR</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G44" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1200</v>
       </c>
       <c r="H44" s="30" t="s">
         <v>198</v>
       </c>
       <c r="I44" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="J44" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="K44" s="30" t="s">
@@ -5966,28 +6709,45 @@
         <v>44000</v>
       </c>
       <c r="M44" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O44" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P44" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q44" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S44" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T44" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U44" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V44" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -5998,29 +6758,29 @@
         <v>18</v>
       </c>
       <c r="D45" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20GR</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G45" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1500</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>198</v>
       </c>
       <c r="I45" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>125</v>
       </c>
       <c r="J45" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="K45" s="30" t="s">
@@ -6030,28 +6790,45 @@
         <v>44000</v>
       </c>
       <c r="M45" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>43120</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>43010</v>
       </c>
       <c r="O45" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42000</v>
       </c>
       <c r="P45" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1010</v>
       </c>
       <c r="Q45" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4047619047619095E-2</v>
       </c>
       <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S45" s="18">
+        <f t="shared" si="7"/>
+        <v>40964</v>
+      </c>
+      <c r="T45" s="18">
+        <f t="shared" si="8"/>
+        <v>38808</v>
+      </c>
+      <c r="U45" s="18">
+        <f t="shared" si="9"/>
+        <v>36652</v>
+      </c>
+      <c r="V45" s="18">
+        <f t="shared" si="10"/>
+        <v>-6358</v>
+      </c>
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -6062,29 +6839,29 @@
         <v>19</v>
       </c>
       <c r="D46" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>10GR</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G46" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3000</v>
       </c>
       <c r="H46" s="30" t="s">
         <v>198</v>
       </c>
       <c r="I46" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>250</v>
       </c>
       <c r="J46" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="K46" s="30" t="s">
@@ -6094,28 +6871,45 @@
         <v>46000</v>
       </c>
       <c r="M46" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>45080</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>44970</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>44000</v>
       </c>
       <c r="P46" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>970</v>
       </c>
       <c r="Q46" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2045454545454479E-2</v>
       </c>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S46" s="18">
+        <f t="shared" si="7"/>
+        <v>42826</v>
+      </c>
+      <c r="T46" s="18">
+        <f t="shared" si="8"/>
+        <v>40572</v>
+      </c>
+      <c r="U46" s="18">
+        <f t="shared" si="9"/>
+        <v>38318</v>
+      </c>
+      <c r="V46" s="18">
+        <f t="shared" si="10"/>
+        <v>-6652</v>
+      </c>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>11</v>
       </c>
@@ -6126,11 +6920,11 @@
         <v>20</v>
       </c>
       <c r="D47" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>5GR</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -6144,11 +6938,11 @@
         <v>198</v>
       </c>
       <c r="I47" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>500</v>
       </c>
       <c r="J47" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="K47" s="30" t="s">
@@ -6158,28 +6952,45 @@
         <v>46000</v>
       </c>
       <c r="M47" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>45080</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>44970</v>
       </c>
       <c r="O47" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>44000</v>
       </c>
       <c r="P47" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>970</v>
       </c>
       <c r="Q47" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2045454545454479E-2</v>
       </c>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S47" s="18">
+        <f t="shared" si="7"/>
+        <v>42826</v>
+      </c>
+      <c r="T47" s="18">
+        <f t="shared" si="8"/>
+        <v>40572</v>
+      </c>
+      <c r="U47" s="18">
+        <f t="shared" si="9"/>
+        <v>38318</v>
+      </c>
+      <c r="V47" s="18">
+        <f t="shared" si="10"/>
+        <v>-6652</v>
+      </c>
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>12</v>
       </c>
@@ -6190,29 +7001,29 @@
         <v>21</v>
       </c>
       <c r="D48" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3GR</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>127</v>
       </c>
       <c r="G48" s="32">
-        <f t="shared" ref="G48:G50" si="29">ROUNDUP(I48*10,0)</f>
+        <f t="shared" ref="G48:G50" si="37">ROUNDUP(I48*10,0)</f>
         <v>8334</v>
       </c>
       <c r="H48" s="30" t="s">
         <v>198</v>
       </c>
       <c r="I48" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>833.33333333333326</v>
       </c>
       <c r="J48" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>25.001999999999999</v>
       </c>
       <c r="K48" s="30" t="s">
@@ -6222,28 +7033,45 @@
         <v>50000</v>
       </c>
       <c r="M48" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>49000</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>48900</v>
       </c>
       <c r="O48" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48000</v>
       </c>
       <c r="P48" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>900</v>
       </c>
       <c r="Q48" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S48" s="18">
+        <f t="shared" si="7"/>
+        <v>46550</v>
+      </c>
+      <c r="T48" s="18">
+        <f t="shared" si="8"/>
+        <v>44100</v>
+      </c>
+      <c r="U48" s="18">
+        <f t="shared" si="9"/>
+        <v>41650</v>
+      </c>
+      <c r="V48" s="18">
+        <f t="shared" si="10"/>
+        <v>-7250</v>
+      </c>
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>13</v>
       </c>
@@ -6254,29 +7082,29 @@
         <v>22</v>
       </c>
       <c r="D49" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2GR</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G49" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>12500</v>
       </c>
       <c r="H49" s="30" t="s">
         <v>198</v>
       </c>
       <c r="I49" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>1250</v>
       </c>
       <c r="J49" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="K49" s="30" t="s">
@@ -6286,28 +7114,45 @@
         <v>50000</v>
       </c>
       <c r="M49" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>49000</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>48900</v>
       </c>
       <c r="O49" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48000</v>
       </c>
       <c r="P49" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>900</v>
       </c>
       <c r="Q49" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="S49" s="18">
+        <f t="shared" si="7"/>
+        <v>46550</v>
+      </c>
+      <c r="T49" s="18">
+        <f t="shared" si="8"/>
+        <v>44100</v>
+      </c>
+      <c r="U49" s="18">
+        <f t="shared" si="9"/>
+        <v>41650</v>
+      </c>
+      <c r="V49" s="18">
+        <f t="shared" si="10"/>
+        <v>-7250</v>
+      </c>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>14</v>
       </c>
@@ -6318,18 +7163,18 @@
         <v>233</v>
       </c>
       <c r="D50" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1,2GR</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1,2</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G50" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>8334</v>
       </c>
       <c r="H50" s="30" t="s">
@@ -6340,7 +7185,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="J50" s="51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>10.0008</v>
       </c>
       <c r="K50" s="30" t="s">
@@ -6350,50 +7195,84 @@
         <v>50000</v>
       </c>
       <c r="M50" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>49000</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>48900</v>
       </c>
       <c r="O50" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48000</v>
       </c>
       <c r="P50" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>900</v>
       </c>
       <c r="Q50" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8750000000000044E-2</v>
       </c>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="54" t="s">
+      <c r="S50" s="18">
+        <f t="shared" si="7"/>
+        <v>46550</v>
+      </c>
+      <c r="T50" s="18">
+        <f t="shared" si="8"/>
+        <v>44100</v>
+      </c>
+      <c r="U50" s="18">
+        <f t="shared" si="9"/>
+        <v>41650</v>
+      </c>
+      <c r="V50" s="18">
+        <f t="shared" si="10"/>
+        <v>-7250</v>
+      </c>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="67"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -6422,7 +7301,7 @@
         <v>667</v>
       </c>
       <c r="J52" s="29">
-        <f t="shared" ref="J52:J57" si="30">G52*E52/1000</f>
+        <f t="shared" ref="J52:J57" si="38">G52*E52/1000</f>
         <v>10.8</v>
       </c>
       <c r="K52" s="30" t="s">
@@ -6432,29 +7311,46 @@
         <v>120000</v>
       </c>
       <c r="M52" s="19">
-        <f t="shared" ref="M52:M60" si="31">L52*0.8</f>
+        <f t="shared" ref="M52:M60" si="39">L52*0.8</f>
         <v>96000</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" ref="N52:N57" si="32">O52+P52</f>
+        <f t="shared" ref="N52:N57" si="40">O52+P52</f>
         <v>66400</v>
       </c>
       <c r="O52" s="19">
         <v>22000</v>
       </c>
       <c r="P52" s="19">
-        <f t="shared" ref="P52:P57" si="33">(M52-O52)*0.6</f>
+        <f t="shared" ref="P52:P57" si="41">(M52-O52)*0.6</f>
         <v>44400</v>
       </c>
       <c r="Q52" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0181818181818181</v>
       </c>
-      <c r="R52" s="66" t="s">
+      <c r="R52" s="67" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" s="18">
+        <f t="shared" si="7"/>
+        <v>91200</v>
+      </c>
+      <c r="T52" s="18">
+        <f t="shared" si="8"/>
+        <v>86400</v>
+      </c>
+      <c r="U52" s="18">
+        <f t="shared" si="9"/>
+        <v>81600</v>
+      </c>
+      <c r="V52" s="18">
+        <f t="shared" si="10"/>
+        <v>15200</v>
+      </c>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -6483,7 +7379,7 @@
         <v>500</v>
       </c>
       <c r="J53" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>9.6</v>
       </c>
       <c r="K53" s="30" t="s">
@@ -6493,27 +7389,44 @@
         <v>108000</v>
       </c>
       <c r="M53" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>86400</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>60640</v>
       </c>
       <c r="O53" s="19">
         <v>22000</v>
       </c>
       <c r="P53" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>38640</v>
       </c>
       <c r="Q53" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7563636363636363</v>
       </c>
-      <c r="R53" s="66"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R53" s="67"/>
+      <c r="S53" s="18">
+        <f t="shared" si="7"/>
+        <v>82080</v>
+      </c>
+      <c r="T53" s="18">
+        <f t="shared" si="8"/>
+        <v>77760</v>
+      </c>
+      <c r="U53" s="18">
+        <f t="shared" si="9"/>
+        <v>73440</v>
+      </c>
+      <c r="V53" s="18">
+        <f t="shared" si="10"/>
+        <v>12800</v>
+      </c>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -6542,7 +7455,7 @@
         <v>250</v>
       </c>
       <c r="J54" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>9.6</v>
       </c>
       <c r="K54" s="30" t="s">
@@ -6552,27 +7465,44 @@
         <v>63000</v>
       </c>
       <c r="M54" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>50400</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>39040</v>
       </c>
       <c r="O54" s="19">
         <v>22000</v>
       </c>
       <c r="P54" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>17040</v>
       </c>
       <c r="Q54" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77454545454545465</v>
       </c>
-      <c r="R54" s="66"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R54" s="67"/>
+      <c r="S54" s="18">
+        <f t="shared" si="7"/>
+        <v>47880</v>
+      </c>
+      <c r="T54" s="18">
+        <f t="shared" si="8"/>
+        <v>45360</v>
+      </c>
+      <c r="U54" s="18">
+        <f t="shared" si="9"/>
+        <v>42840</v>
+      </c>
+      <c r="V54" s="18">
+        <f t="shared" si="10"/>
+        <v>3800</v>
+      </c>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>4</v>
       </c>
@@ -6601,7 +7531,7 @@
         <v>150</v>
       </c>
       <c r="J55" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>19.2</v>
       </c>
       <c r="K55" s="30" t="s">
@@ -6611,27 +7541,44 @@
         <v>44000</v>
       </c>
       <c r="M55" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>35200</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>29920</v>
       </c>
       <c r="O55" s="19">
         <v>22000</v>
       </c>
       <c r="P55" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>7920</v>
       </c>
       <c r="Q55" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="R55" s="66"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R55" s="67"/>
+      <c r="S55" s="18">
+        <f t="shared" si="7"/>
+        <v>33440</v>
+      </c>
+      <c r="T55" s="18">
+        <f t="shared" si="8"/>
+        <v>31680</v>
+      </c>
+      <c r="U55" s="18">
+        <f t="shared" si="9"/>
+        <v>29920</v>
+      </c>
+      <c r="V55" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>5</v>
       </c>
@@ -6660,7 +7607,7 @@
         <v>120</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>15.4</v>
       </c>
       <c r="K56" s="30" t="s">
@@ -6670,27 +7617,44 @@
         <v>43000</v>
       </c>
       <c r="M56" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>34400</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>29440</v>
       </c>
       <c r="O56" s="19">
         <v>22000</v>
       </c>
       <c r="P56" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>7440</v>
       </c>
       <c r="Q56" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33818181818181814</v>
       </c>
-      <c r="R56" s="66"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R56" s="67"/>
+      <c r="S56" s="18">
+        <f t="shared" si="7"/>
+        <v>32680</v>
+      </c>
+      <c r="T56" s="18">
+        <f t="shared" si="8"/>
+        <v>30960</v>
+      </c>
+      <c r="U56" s="18">
+        <f t="shared" si="9"/>
+        <v>29240</v>
+      </c>
+      <c r="V56" s="18">
+        <f t="shared" si="10"/>
+        <v>-200</v>
+      </c>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>6</v>
       </c>
@@ -6719,7 +7683,7 @@
         <v>60</v>
       </c>
       <c r="J57" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>16.32</v>
       </c>
       <c r="K57" s="30" t="s">
@@ -6729,49 +7693,83 @@
         <v>34000</v>
       </c>
       <c r="M57" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>27200</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>25120</v>
       </c>
       <c r="O57" s="19">
         <v>22000</v>
       </c>
       <c r="P57" s="19">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>3120</v>
       </c>
       <c r="Q57" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14181818181818184</v>
       </c>
-      <c r="R57" s="66"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="54" t="s">
+      <c r="R57" s="67"/>
+      <c r="S57" s="18">
+        <f t="shared" si="7"/>
+        <v>25840</v>
+      </c>
+      <c r="T57" s="18">
+        <f t="shared" si="8"/>
+        <v>24480</v>
+      </c>
+      <c r="U57" s="18">
+        <f t="shared" si="9"/>
+        <v>23120</v>
+      </c>
+      <c r="V57" s="18">
+        <f t="shared" si="10"/>
+        <v>-2000</v>
+      </c>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="67"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -6812,7 +7810,7 @@
         <v>40000</v>
       </c>
       <c r="M59" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>32000</v>
       </c>
       <c r="N59" s="5">
@@ -6827,14 +7825,31 @@
         <v>4679.9999999999973</v>
       </c>
       <c r="Q59" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19338842975206583</v>
       </c>
-      <c r="R59" s="66" t="s">
+      <c r="R59" s="67" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" s="18">
+        <f t="shared" si="7"/>
+        <v>30400</v>
+      </c>
+      <c r="T59" s="18">
+        <f t="shared" si="8"/>
+        <v>28800</v>
+      </c>
+      <c r="U59" s="18">
+        <f t="shared" si="9"/>
+        <v>27200</v>
+      </c>
+      <c r="V59" s="18">
+        <f t="shared" si="10"/>
+        <v>-1680</v>
+      </c>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -6875,7 +7890,7 @@
         <v>40000</v>
       </c>
       <c r="M60" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>32000</v>
       </c>
       <c r="N60" s="5">
@@ -6890,28 +7905,45 @@
         <v>4679.9999999999973</v>
       </c>
       <c r="Q60" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19338842975206583</v>
       </c>
-      <c r="R60" s="66"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="54" t="s">
+      <c r="R60" s="67"/>
+      <c r="S60" s="18">
+        <f t="shared" si="7"/>
+        <v>30400</v>
+      </c>
+      <c r="T60" s="18">
+        <f t="shared" si="8"/>
+        <v>28800</v>
+      </c>
+      <c r="U60" s="18">
+        <f t="shared" si="9"/>
+        <v>27200</v>
+      </c>
+      <c r="V60" s="18">
+        <f t="shared" si="10"/>
+        <v>-1680</v>
+      </c>
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
       <c r="M61" s="18"/>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>47</v>
       </c>
@@ -6922,7 +7954,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="22" t="str">
-        <f t="shared" ref="D62:D68" si="34">RIGHT(C62,LEN(C62)-17)</f>
+        <f t="shared" ref="D62:D68" si="42">RIGHT(C62,LEN(C62)-17)</f>
         <v>2000GR</v>
       </c>
       <c r="E62" s="4" t="str">
@@ -6936,14 +7968,14 @@
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="29">
-        <f t="shared" ref="J62:J68" si="35">G62*E62/1000</f>
+        <f t="shared" ref="J62:J68" si="43">G62*E62/1000</f>
         <v>20</v>
       </c>
       <c r="K62" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>48</v>
       </c>
@@ -6954,11 +7986,11 @@
         <v>38</v>
       </c>
       <c r="D63" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>1000GR</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f t="shared" ref="E63:E68" si="36">LEFT(D63,LEN(D63)-2)</f>
+        <f t="shared" ref="E63:E68" si="44">LEFT(D63,LEN(D63)-2)</f>
         <v>1000</v>
       </c>
       <c r="F63" s="4"/>
@@ -6968,14 +8000,14 @@
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="K63" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>49</v>
       </c>
@@ -6986,11 +8018,11 @@
         <v>39</v>
       </c>
       <c r="D64" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>500GR</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>500</v>
       </c>
       <c r="F64" s="4"/>
@@ -7000,7 +8032,7 @@
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="K64" s="30" t="s">
@@ -7018,11 +8050,11 @@
         <v>40</v>
       </c>
       <c r="D65" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>100GR</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>100</v>
       </c>
       <c r="F65" s="4"/>
@@ -7032,7 +8064,7 @@
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="K65" s="30" t="s">
@@ -7050,11 +8082,11 @@
         <v>41</v>
       </c>
       <c r="D66" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>50GR</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>50</v>
       </c>
       <c r="F66" s="4"/>
@@ -7064,7 +8096,7 @@
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="K66" s="30" t="s">
@@ -7082,11 +8114,11 @@
         <v>42</v>
       </c>
       <c r="D67" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>10GR</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="F67" s="4"/>
@@ -7096,7 +8128,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="K67" s="30" t="s">
@@ -7114,11 +8146,11 @@
         <v>43</v>
       </c>
       <c r="D68" s="22" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>5GR</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="F68" s="4"/>
@@ -7128,7 +8160,7 @@
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="K68" s="30" t="s">
@@ -7136,19 +8168,19 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -7212,19 +8244,19 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -7279,19 +8311,19 @@
       <c r="K76" s="30"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
@@ -7346,19 +8378,19 @@
       <c r="K81" s="30"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
@@ -7413,19 +8445,19 @@
       <c r="K86" s="30"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
@@ -7480,19 +8512,19 @@
       <c r="K91" s="30"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
@@ -7547,19 +8579,19 @@
       <c r="K96" s="30"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -7604,29 +8636,16 @@
       <c r="A103" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="R52:R57"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A51:R51"/>
-    <mergeCell ref="A58:R58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R7:R21"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A77:K77"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
+  <mergeCells count="39">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A36:K36"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A51:R51"/>
+    <mergeCell ref="A58:R58"/>
     <mergeCell ref="A92:K92"/>
     <mergeCell ref="A97:K97"/>
     <mergeCell ref="A4:A5"/>
@@ -7640,6 +8659,23 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A82:K82"/>
     <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A77:K77"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R7:R21"/>
+    <mergeCell ref="R52:R57"/>
+    <mergeCell ref="R59:R60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Eil/03.Bảng giá-220616.xlsx
+++ b/Eil/03.Bảng giá-220616.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Thống kê'!$B$5:$C$5</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">'Thống kê'!$H$5</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Thống kê'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Giá Gốc'!$A$1:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Giá Gốc'!$A$1:$L$60</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -442,9 +442,6 @@
     <t>Tùy chỉnh</t>
   </si>
   <si>
-    <t>CHÍNH SÁCH GIÁ NHÀ PHÂN PHỐI - ÁP DỤNG TỪ THÁNG 08/2022</t>
-  </si>
-  <si>
     <t>PP Bag</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>23*30</t>
   </si>
   <si>
-    <t>Listed price</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -755,6 +749,12 @@
   </si>
   <si>
     <t>VND</t>
+  </si>
+  <si>
+    <t>Price (Kg)</t>
+  </si>
+  <si>
+    <t>CHÍNH SÁCH GIÁ ĐẠI LÝ</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1067,20 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,10 +1090,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1091,10 +1104,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,16 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1460,36 +1460,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
@@ -2528,19 +2528,19 @@
         <v>96</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>97</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>95</v>
@@ -2562,7 +2562,7 @@
         <v>TM</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IFERROR(VLOOKUP(E6,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2617,7 +2617,7 @@
         <v>TM</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IFERROR(VLOOKUP(E7,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2672,7 +2672,7 @@
         <v>TM</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IFERROR(VLOOKUP(E8,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2720,14 +2720,14 @@
         <v>44780</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IFERROR(VLOOKUP(E9,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2775,7 +2775,7 @@
         <v>44780</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2830,14 +2830,14 @@
         <v>44780</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IFERROR(VLOOKUP(E11,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2885,14 +2885,14 @@
         <v>44780</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IFERROR(VLOOKUP(E12,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2940,14 +2940,14 @@
         <v>44780</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IFERROR(VLOOKUP(E13,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -2995,14 +2995,14 @@
         <v>44780</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IFERROR(VLOOKUP(E14,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3050,14 +3050,14 @@
         <v>44780</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IFERROR(VLOOKUP(E15,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3105,7 +3105,7 @@
         <v>44780</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3160,14 +3160,14 @@
         <v>44780</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IFERROR(VLOOKUP(E17,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3215,14 +3215,14 @@
         <v>44780</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IFERROR(VLOOKUP(E18,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3270,14 +3270,14 @@
         <v>44780</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>TM</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IFERROR(VLOOKUP(E19,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3325,14 +3325,14 @@
         <v>44780</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SX</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IFERROR(VLOOKUP(E20,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3380,14 +3380,14 @@
         <v>44780</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SX</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IFERROR(VLOOKUP(E21,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3435,7 +3435,7 @@
         <v>44780</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3490,14 +3490,14 @@
         <v>44780</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SX</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IFERROR(VLOOKUP(E23,'Giá Gốc'!$B$7:$P$98,2,0),"")</f>
@@ -3569,10 +3569,8 @@
   </sheetPr>
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,28 +3586,30 @@
     <col min="10" max="10" width="8.5546875" style="34" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" style="36" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="10" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="8" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5.44140625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.77734375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="A1" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
@@ -3625,131 +3625,131 @@
       <c r="K2" s="26"/>
     </row>
     <row r="4" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="58" t="s">
+      <c r="G4" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="I4" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="N4" s="65" t="s">
+      <c r="L4" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="T4" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="O4" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="S4" s="54" t="s">
+      <c r="U4" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="V4" s="66"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="V4" s="54"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="2" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="71">
+      <c r="A5" s="63"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="55">
         <v>23500</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>59</v>
@@ -3769,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="28">
         <v>1</v>
@@ -3803,8 +3803,8 @@
         <f>N7/O7-100%</f>
         <v>0.25090909090909097</v>
       </c>
-      <c r="R7" s="67" t="s">
-        <v>237</v>
+      <c r="R7" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="S7" s="18">
         <f>$M7*0.95</f>
@@ -3823,15 +3823,15 @@
         <v>-1000</v>
       </c>
       <c r="W7" s="18"/>
-      <c r="X7" s="70">
+      <c r="X7" s="54">
         <f>ROUND(S7/$X$5,2)</f>
         <v>1.26</v>
       </c>
-      <c r="Y7" s="70">
+      <c r="Y7" s="54">
         <f t="shared" ref="Y7:Z7" si="4">ROUND(T7/$X$5,2)</f>
         <v>1.19</v>
       </c>
-      <c r="Z7" s="70">
+      <c r="Z7" s="54">
         <f t="shared" si="4"/>
         <v>1.1299999999999999</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
@@ -3861,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I8" s="28">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         <f t="shared" ref="Q8:Q60" si="6">N8/O8-100%</f>
         <v>0.469090909090909</v>
       </c>
-      <c r="R8" s="67"/>
+      <c r="R8" s="71"/>
       <c r="S8" s="18">
         <f t="shared" ref="S8:S60" si="7">$M8*0.95</f>
         <v>37240</v>
@@ -3913,15 +3913,15 @@
         <v>1000</v>
       </c>
       <c r="W8" s="18"/>
-      <c r="X8" s="70">
+      <c r="X8" s="54">
         <f t="shared" ref="X8:X11" si="11">ROUND(S8/$X$5,2)</f>
         <v>1.58</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="54">
         <f t="shared" ref="Y8:Y11" si="12">ROUND(T8/$X$5,2)</f>
         <v>1.5</v>
       </c>
-      <c r="Z8" s="70">
+      <c r="Z8" s="54">
         <f t="shared" ref="Z8:Z11" si="13">ROUND(U8/$X$5,2)</f>
         <v>1.42</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>61</v>
@@ -3951,7 +3951,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I9" s="28">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <f t="shared" si="6"/>
         <v>0.44727272727272727</v>
       </c>
-      <c r="R9" s="67"/>
+      <c r="R9" s="71"/>
       <c r="S9" s="18">
         <f t="shared" si="7"/>
         <v>36480</v>
@@ -4003,15 +4003,15 @@
         <v>800</v>
       </c>
       <c r="W9" s="18"/>
-      <c r="X9" s="70">
+      <c r="X9" s="54">
         <f t="shared" si="11"/>
         <v>1.55</v>
       </c>
-      <c r="Y9" s="70">
+      <c r="Y9" s="54">
         <f t="shared" si="12"/>
         <v>1.47</v>
       </c>
-      <c r="Z9" s="70">
+      <c r="Z9" s="54">
         <f t="shared" si="13"/>
         <v>1.39</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>62</v>
@@ -4041,7 +4041,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I10" s="28">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <f t="shared" si="6"/>
         <v>0.42545454545454553</v>
       </c>
-      <c r="R10" s="67"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="18">
         <f t="shared" si="7"/>
         <v>35720</v>
@@ -4093,15 +4093,15 @@
         <v>600</v>
       </c>
       <c r="W10" s="18"/>
-      <c r="X10" s="70">
+      <c r="X10" s="54">
         <f t="shared" si="11"/>
         <v>1.52</v>
       </c>
-      <c r="Y10" s="70">
+      <c r="Y10" s="54">
         <f t="shared" si="12"/>
         <v>1.44</v>
       </c>
-      <c r="Z10" s="70">
+      <c r="Z10" s="54">
         <f t="shared" si="13"/>
         <v>1.36</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>63</v>
@@ -4131,7 +4131,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="28">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="R11" s="67"/>
+      <c r="R11" s="71"/>
       <c r="S11" s="18">
         <f t="shared" si="7"/>
         <v>30400</v>
@@ -4183,15 +4183,15 @@
         <v>-800</v>
       </c>
       <c r="W11" s="18"/>
-      <c r="X11" s="70">
+      <c r="X11" s="54">
         <f t="shared" si="11"/>
         <v>1.29</v>
       </c>
-      <c r="Y11" s="70">
+      <c r="Y11" s="54">
         <f t="shared" si="12"/>
         <v>1.23</v>
       </c>
-      <c r="Z11" s="70">
+      <c r="Z11" s="54">
         <f t="shared" si="13"/>
         <v>1.1599999999999999</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>64</v>
@@ -4222,7 +4222,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I12" s="28">
         <f>1000/E12*2</f>
@@ -4257,7 +4257,7 @@
         <f t="shared" si="6"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="R12" s="67"/>
+      <c r="R12" s="71"/>
       <c r="S12" s="18">
         <f t="shared" si="7"/>
         <v>30400</v>
@@ -4281,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>65</v>
@@ -4302,7 +4302,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" s="28">
         <f>1000/E13*2.5</f>
@@ -4337,7 +4337,7 @@
         <f t="shared" si="6"/>
         <v>0.29454545454545444</v>
       </c>
-      <c r="R13" s="67"/>
+      <c r="R13" s="71"/>
       <c r="S13" s="18">
         <f t="shared" si="7"/>
         <v>31160</v>
@@ -4361,7 +4361,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>66</v>
@@ -4382,7 +4382,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I14" s="28">
         <f>1000/E14*2</f>
@@ -4417,7 +4417,7 @@
         <f t="shared" si="6"/>
         <v>0.3163636363636364</v>
       </c>
-      <c r="R14" s="67"/>
+      <c r="R14" s="71"/>
       <c r="S14" s="18">
         <f t="shared" si="7"/>
         <v>31920</v>
@@ -4441,7 +4441,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>67</v>
@@ -4462,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I15" s="28">
         <f t="shared" ref="I15:I21" si="17">1000/E15*2.5</f>
@@ -4497,7 +4497,7 @@
         <f t="shared" si="6"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="R15" s="67"/>
+      <c r="R15" s="71"/>
       <c r="S15" s="18">
         <f t="shared" si="7"/>
         <v>33440</v>
@@ -4521,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>68</v>
@@ -4542,7 +4542,7 @@
         <v>200</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I16" s="28">
         <f t="shared" si="17"/>
@@ -4577,7 +4577,7 @@
         <f t="shared" si="6"/>
         <v>0.40363636363636357</v>
       </c>
-      <c r="R16" s="67"/>
+      <c r="R16" s="71"/>
       <c r="S16" s="18">
         <f t="shared" si="7"/>
         <v>34960</v>
@@ -4601,7 +4601,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>69</v>
@@ -4622,7 +4622,7 @@
         <v>400</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I17" s="28">
         <f t="shared" si="17"/>
@@ -4657,7 +4657,7 @@
         <f t="shared" si="6"/>
         <v>0.469090909090909</v>
       </c>
-      <c r="R17" s="67"/>
+      <c r="R17" s="71"/>
       <c r="S17" s="18">
         <f t="shared" si="7"/>
         <v>37240</v>
@@ -4681,7 +4681,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>70</v>
@@ -4702,7 +4702,7 @@
         <v>500</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I18" s="28">
         <f t="shared" si="17"/>
@@ -4737,7 +4737,7 @@
         <f>N18/O18-100%</f>
         <v>0.49090909090909096</v>
       </c>
-      <c r="R18" s="67"/>
+      <c r="R18" s="71"/>
       <c r="S18" s="18">
         <f t="shared" si="7"/>
         <v>38000</v>
@@ -4782,7 +4782,7 @@
         <v>1000</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I19" s="28">
         <f t="shared" si="17"/>
@@ -4817,7 +4817,7 @@
         <f t="shared" si="6"/>
         <v>0.57818181818181813</v>
       </c>
-      <c r="R19" s="67"/>
+      <c r="R19" s="71"/>
       <c r="S19" s="18">
         <f t="shared" si="7"/>
         <v>41040</v>
@@ -4841,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>72</v>
@@ -4862,7 +4862,7 @@
         <v>2000</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" si="17"/>
@@ -4897,7 +4897,7 @@
         <f>N20/O20-100%</f>
         <v>0.88363636363636355</v>
       </c>
-      <c r="R20" s="67"/>
+      <c r="R20" s="71"/>
       <c r="S20" s="18">
         <f t="shared" si="7"/>
         <v>51680</v>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>107</v>
@@ -4942,7 +4942,7 @@
         <v>5000</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="17"/>
@@ -4977,7 +4977,7 @@
         <f t="shared" si="6"/>
         <v>1.8872727272727272</v>
       </c>
-      <c r="R21" s="67"/>
+      <c r="R21" s="71"/>
       <c r="S21" s="18">
         <f t="shared" si="7"/>
         <v>86640</v>
@@ -4996,20 +4996,20 @@
       </c>
       <c r="W21" s="18"/>
     </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="39"/>
       <c r="M22" s="39"/>
       <c r="N22" s="46"/>
@@ -5035,12 +5035,12 @@
       </c>
       <c r="W22" s="18"/>
     </row>
-    <row r="23" spans="1:23" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>48</v>
@@ -5060,7 +5060,7 @@
         <v>10</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I23" s="28">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L23" s="19">
         <v>22000</v>
@@ -5114,12 +5114,12 @@
       </c>
       <c r="W23" s="18"/>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>109</v>
@@ -5139,7 +5139,7 @@
         <v>10</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I24" s="28">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>10</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L24" s="19">
         <v>22000</v>
@@ -5193,12 +5193,12 @@
       </c>
       <c r="W24" s="18"/>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -5218,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I25" s="28">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L25" s="19">
         <v>20000</v>
@@ -5272,12 +5272,12 @@
       </c>
       <c r="W25" s="18"/>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>50</v>
@@ -5297,7 +5297,7 @@
         <v>50</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="31">
@@ -5305,7 +5305,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26" s="19">
         <v>22000</v>
@@ -5349,12 +5349,12 @@
       </c>
       <c r="W26" s="18"/>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>51</v>
@@ -5374,7 +5374,7 @@
         <v>120</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="31">
@@ -5382,7 +5382,7 @@
         <v>24</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" s="19">
         <v>22000</v>
@@ -5426,12 +5426,12 @@
       </c>
       <c r="W27" s="18"/>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>52</v>
@@ -5452,7 +5452,7 @@
         <v>240</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" s="28">
         <f>1000/E28*8</f>
@@ -5463,7 +5463,7 @@
         <v>24</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" s="19">
         <v>22000</v>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="W28" s="18"/>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
@@ -5533,7 +5533,7 @@
         <v>480</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="28">
         <f>1000/E29*8</f>
@@ -5544,7 +5544,7 @@
         <v>24</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L29" s="19">
         <v>22000</v>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="W29" s="18"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>54</v>
@@ -5614,7 +5614,7 @@
         <v>1200</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I30" s="28">
         <f>1000/E30*8</f>
@@ -5625,7 +5625,7 @@
         <v>24</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" s="19">
         <v>22000</v>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="W30" s="18"/>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>9</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>2100</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I31" s="28">
         <f>1000/E31*7</f>
@@ -5706,7 +5706,7 @@
         <v>21</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31" s="19">
         <v>24000</v>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="W31" s="18"/>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>56</v>
@@ -5776,7 +5776,7 @@
         <v>3600</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I32" s="28">
         <f>1000/E32*6</f>
@@ -5787,7 +5787,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L32" s="19">
         <v>24000</v>
@@ -5831,12 +5831,12 @@
       </c>
       <c r="W32" s="18"/>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>57</v>
@@ -5857,7 +5857,7 @@
         <v>6000</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I33" s="28">
         <f>1000/E33*6</f>
@@ -5868,7 +5868,7 @@
         <v>18</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" s="19">
         <v>35000</v>
@@ -5912,12 +5912,12 @@
       </c>
       <c r="W33" s="18"/>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>58</v>
@@ -5938,7 +5938,7 @@
         <v>9000</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I34" s="28">
         <f>1000/E34*6</f>
@@ -5949,7 +5949,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L34" s="19">
         <v>35000</v>
@@ -5993,15 +5993,15 @@
       </c>
       <c r="W34" s="18"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D35" s="42" t="str">
         <f t="shared" ref="D35" si="27">RIGHT(C35,LEN(C35)-5)</f>
@@ -6019,7 +6019,7 @@
         <v>14286</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I35" s="28">
         <f>1000/E35*5</f>
@@ -6030,7 +6030,7 @@
         <v>20.000399999999999</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L35" s="19">
         <v>35000</v>
@@ -6074,20 +6074,20 @@
       </c>
       <c r="W35" s="18"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39"/>
       <c r="N36" s="17"/>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="W36" s="18"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
@@ -6138,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I37" s="28">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>18</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L37" s="19">
         <v>44000</v>
@@ -6192,12 +6192,12 @@
       </c>
       <c r="W37" s="18"/>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -6217,7 +6217,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I38" s="28">
         <v>1</v>
@@ -6227,7 +6227,7 @@
         <v>16</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="19">
         <v>44000</v>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="W38" s="18"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>108</v>
@@ -6296,7 +6296,7 @@
         <v>18</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I39" s="28">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>18</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L39" s="19">
         <v>42000</v>
@@ -6350,12 +6350,12 @@
       </c>
       <c r="W39" s="18"/>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
@@ -6375,7 +6375,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="31">
@@ -6383,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L40" s="19">
         <v>44000</v>
@@ -6427,12 +6427,12 @@
       </c>
       <c r="W40" s="18"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>5</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>13</v>
@@ -6452,7 +6452,7 @@
         <v>120</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="31">
@@ -6460,7 +6460,7 @@
         <v>24</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" s="19">
         <v>44000</v>
@@ -6504,12 +6504,12 @@
       </c>
       <c r="W41" s="18"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>6</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>14</v>
@@ -6530,7 +6530,7 @@
         <v>300</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I42" s="28">
         <f t="shared" ref="I42:I49" si="35">1000/E42*2.5</f>
@@ -6541,7 +6541,7 @@
         <v>30</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" s="19">
         <v>44000</v>
@@ -6585,12 +6585,12 @@
       </c>
       <c r="W42" s="18"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>15</v>
@@ -6611,7 +6611,7 @@
         <v>600</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" si="35"/>
@@ -6622,7 +6622,7 @@
         <v>30</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="19">
         <v>44000</v>
@@ -6666,12 +6666,12 @@
       </c>
       <c r="W43" s="18"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>8</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>17</v>
@@ -6692,7 +6692,7 @@
         <v>1200</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I44" s="28">
         <f t="shared" si="35"/>
@@ -6703,7 +6703,7 @@
         <v>30</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44" s="19">
         <v>44000</v>
@@ -6747,12 +6747,12 @@
       </c>
       <c r="W44" s="18"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
@@ -6773,7 +6773,7 @@
         <v>1500</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I45" s="28">
         <f t="shared" si="35"/>
@@ -6784,7 +6784,7 @@
         <v>30</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L45" s="19">
         <v>44000</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="W45" s="18"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>3000</v>
       </c>
       <c r="H46" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I46" s="28">
         <f t="shared" si="35"/>
@@ -6865,7 +6865,7 @@
         <v>30</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L46" s="19">
         <v>46000</v>
@@ -6909,12 +6909,12 @@
       </c>
       <c r="W46" s="18"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>11</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>20</v>
@@ -6935,7 +6935,7 @@
         <v>5000</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I47" s="28">
         <f t="shared" si="35"/>
@@ -6946,7 +6946,7 @@
         <v>25</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L47" s="19">
         <v>46000</v>
@@ -6990,12 +6990,12 @@
       </c>
       <c r="W47" s="18"/>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>21</v>
@@ -7016,7 +7016,7 @@
         <v>8334</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I48" s="28">
         <f t="shared" si="35"/>
@@ -7027,7 +7027,7 @@
         <v>25.001999999999999</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L48" s="19">
         <v>50000</v>
@@ -7071,12 +7071,12 @@
       </c>
       <c r="W48" s="18"/>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>22</v>
@@ -7097,7 +7097,7 @@
         <v>12500</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I49" s="28">
         <f t="shared" si="35"/>
@@ -7108,7 +7108,7 @@
         <v>25</v>
       </c>
       <c r="K49" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L49" s="19">
         <v>50000</v>
@@ -7152,15 +7152,15 @@
       </c>
       <c r="W49" s="18"/>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D50" s="42" t="str">
         <f t="shared" si="29"/>
@@ -7178,7 +7178,7 @@
         <v>8334</v>
       </c>
       <c r="H50" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I50" s="28">
         <f>1000/E50</f>
@@ -7189,7 +7189,7 @@
         <v>10.0008</v>
       </c>
       <c r="K50" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L50" s="19">
         <v>50000</v>
@@ -7234,26 +7234,26 @@
       <c r="W50" s="18"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="68"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="62"/>
       <c r="S51" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7277,13 +7277,13 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="4">
         <v>1.5</v>
@@ -7295,7 +7295,7 @@
         <v>7200</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I52" s="28">
         <v>667</v>
@@ -7329,8 +7329,8 @@
         <f t="shared" si="6"/>
         <v>2.0181818181818181</v>
       </c>
-      <c r="R52" s="67" t="s">
-        <v>237</v>
+      <c r="R52" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="S52" s="18">
         <f t="shared" si="7"/>
@@ -7355,13 +7355,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -7373,7 +7373,7 @@
         <v>4800</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I53" s="28">
         <v>500</v>
@@ -7407,7 +7407,7 @@
         <f t="shared" si="6"/>
         <v>1.7563636363636363</v>
       </c>
-      <c r="R53" s="67"/>
+      <c r="R53" s="71"/>
       <c r="S53" s="18">
         <f t="shared" si="7"/>
         <v>82080</v>
@@ -7431,13 +7431,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" s="4">
         <v>4</v>
@@ -7449,7 +7449,7 @@
         <v>2400</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I54" s="28">
         <v>250</v>
@@ -7483,7 +7483,7 @@
         <f t="shared" si="6"/>
         <v>0.77454545454545465</v>
       </c>
-      <c r="R54" s="67"/>
+      <c r="R54" s="71"/>
       <c r="S54" s="18">
         <f t="shared" si="7"/>
         <v>47880</v>
@@ -7507,13 +7507,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E55" s="4">
         <v>8</v>
@@ -7525,7 +7525,7 @@
         <v>2400</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I55" s="28">
         <v>150</v>
@@ -7559,7 +7559,7 @@
         <f t="shared" si="6"/>
         <v>0.3600000000000001</v>
       </c>
-      <c r="R55" s="67"/>
+      <c r="R55" s="71"/>
       <c r="S55" s="18">
         <f t="shared" si="7"/>
         <v>33440</v>
@@ -7583,13 +7583,13 @@
         <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="4">
         <v>11</v>
@@ -7601,7 +7601,7 @@
         <v>1400</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I56" s="28">
         <v>120</v>
@@ -7635,7 +7635,7 @@
         <f t="shared" si="6"/>
         <v>0.33818181818181814</v>
       </c>
-      <c r="R56" s="67"/>
+      <c r="R56" s="71"/>
       <c r="S56" s="18">
         <f t="shared" si="7"/>
         <v>32680</v>
@@ -7659,13 +7659,13 @@
         <v>6</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E57" s="4">
         <v>17</v>
@@ -7677,7 +7677,7 @@
         <v>960</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I57" s="28">
         <v>60</v>
@@ -7711,7 +7711,7 @@
         <f t="shared" si="6"/>
         <v>0.14181818181818184</v>
       </c>
-      <c r="R57" s="67"/>
+      <c r="R57" s="71"/>
       <c r="S57" s="18">
         <f t="shared" si="7"/>
         <v>25840</v>
@@ -7731,26 +7731,26 @@
       <c r="W57" s="18"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="68"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="62"/>
       <c r="S58" s="18">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>44</v>
@@ -7794,7 +7794,7 @@
         <v>2400</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I59" s="28">
         <v>200</v>
@@ -7828,8 +7828,8 @@
         <f t="shared" si="6"/>
         <v>0.19338842975206583</v>
       </c>
-      <c r="R59" s="67" t="s">
-        <v>237</v>
+      <c r="R59" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="S59" s="18">
         <f t="shared" si="7"/>
@@ -7854,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>45</v>
@@ -7874,7 +7874,7 @@
         <v>1500</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I60" s="28">
         <v>150</v>
@@ -7908,7 +7908,7 @@
         <f t="shared" si="6"/>
         <v>0.19338842975206583</v>
       </c>
-      <c r="R60" s="67"/>
+      <c r="R60" s="71"/>
       <c r="S60" s="18">
         <f t="shared" si="7"/>
         <v>30400</v>
@@ -7927,20 +7927,20 @@
       </c>
       <c r="W60" s="18"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A61" s="55" t="s">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
@@ -8167,20 +8167,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -8243,20 +8243,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="55" t="s">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -8310,20 +8310,20 @@
       <c r="J76" s="29"/>
       <c r="K76" s="30"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="55" t="s">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
@@ -8377,20 +8377,20 @@
       <c r="J81" s="29"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="55" t="s">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="56"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
@@ -8444,20 +8444,20 @@
       <c r="J86" s="29"/>
       <c r="K86" s="30"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
@@ -8511,20 +8511,20 @@
       <c r="J91" s="29"/>
       <c r="K91" s="30"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="55" t="s">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
@@ -8578,20 +8578,20 @@
       <c r="J96" s="29"/>
       <c r="K96" s="30"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="55" t="s">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="56"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -8637,15 +8637,21 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="A51:R51"/>
-    <mergeCell ref="A58:R58"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A87:K87"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R7:R21"/>
+    <mergeCell ref="R52:R57"/>
+    <mergeCell ref="R59:R60"/>
     <mergeCell ref="A92:K92"/>
     <mergeCell ref="A97:K97"/>
     <mergeCell ref="A4:A5"/>
@@ -8661,21 +8667,15 @@
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A72:K72"/>
     <mergeCell ref="A77:K77"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A87:K87"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R7:R21"/>
-    <mergeCell ref="R52:R57"/>
-    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A51:R51"/>
+    <mergeCell ref="A58:R58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Eil/03.Bảng giá-220616.xlsx
+++ b/Eil/03.Bảng giá-220616.xlsx
@@ -2738,7 +2738,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2747,28 +2768,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2780,14 +2783,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5240,11 +5240,11 @@
   <dimension ref="A1:BE103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D4" sqref="D4"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5274,21 +5274,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
@@ -5306,13 +5306,13 @@
       <c r="M2" s="26"/>
     </row>
     <row r="4" spans="1:57" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="59" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="59" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="60" t="s">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="61" t="s">
         <v>193</v>
       </c>
       <c r="J4" s="60" t="s">
@@ -5335,19 +5335,19 @@
       <c r="K4" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="61" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="67" t="s">
         <v>292</v>
       </c>
       <c r="Q4" s="60" t="s">
@@ -5359,7 +5359,7 @@
       <c r="S4" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="59" t="s">
         <v>230</v>
       </c>
       <c r="U4" s="53"/>
@@ -5367,181 +5367,181 @@
       <c r="W4" s="53"/>
       <c r="X4" s="53"/>
       <c r="Y4" s="53"/>
-      <c r="Z4" s="71" t="s">
+      <c r="Z4" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="AA4" s="72" t="s">
+      <c r="AA4" s="73" t="s">
         <v>269</v>
       </c>
       <c r="AB4" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="AD4" s="73" t="s">
+      <c r="AD4" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="AE4" s="73" t="s">
+      <c r="AE4" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="AF4" s="73" t="s">
+      <c r="AF4" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="AG4" s="73" t="s">
+      <c r="AG4" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="AH4" s="73" t="s">
+      <c r="AH4" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="AI4" s="73" t="s">
+      <c r="AI4" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="AJ4" s="73" t="s">
+      <c r="AJ4" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="72" t="s">
+      <c r="AM4" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="AN4" s="73" t="s">
+      <c r="AN4" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="AO4" s="73" t="s">
+      <c r="AO4" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="AP4" s="73" t="s">
+      <c r="AP4" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="AQ4" s="73" t="s">
+      <c r="AQ4" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="AR4" s="72" t="s">
+      <c r="AR4" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="AS4" s="72" t="s">
+      <c r="AS4" s="73" t="s">
         <v>275</v>
       </c>
-      <c r="AT4" s="73" t="s">
+      <c r="AT4" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="AU4" s="73" t="s">
+      <c r="AU4" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="AV4" s="73" t="s">
+      <c r="AV4" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="AW4" s="73" t="s">
+      <c r="AW4" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="AX4" s="73" t="s">
+      <c r="AX4" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="AY4" s="73" t="s">
+      <c r="AY4" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="AZ4" s="73" t="s">
+      <c r="AZ4" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="BA4" s="73" t="s">
+      <c r="BA4" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="BB4" s="73" t="s">
+      <c r="BB4" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="BC4" s="73" t="s">
+      <c r="BC4" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="BD4" s="73" t="s">
+      <c r="BD4" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="BE4" s="73" t="s">
+      <c r="BE4" s="64" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:57" s="2" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="60"/>
-      <c r="C5" s="63"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="66"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="60"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="62"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
       <c r="S5" s="60"/>
-      <c r="T5" s="63"/>
+      <c r="T5" s="59"/>
       <c r="U5" s="53"/>
       <c r="V5" s="53"/>
       <c r="W5" s="53"/>
       <c r="X5" s="53"/>
       <c r="Y5" s="53"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="72"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="74"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="73"/>
+      <c r="AS5" s="73"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
     </row>
     <row r="6" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="70"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="71"/>
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
       <c r="W6" s="53"/>
@@ -5609,7 +5609,7 @@
       <c r="S7" s="19">
         <v>26150</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="72" t="s">
         <v>297</v>
       </c>
       <c r="U7" s="10">
@@ -5706,7 +5706,7 @@
       <c r="S8" s="19">
         <v>34700</v>
       </c>
-      <c r="T8" s="57"/>
+      <c r="T8" s="72"/>
       <c r="U8" s="10">
         <f t="shared" ref="U8:U15" si="3">ROUND(O8/24000*$AA$55,-1)</f>
         <v>38950</v>
@@ -5798,7 +5798,7 @@
       <c r="S9" s="19">
         <v>33190</v>
       </c>
-      <c r="T9" s="57"/>
+      <c r="T9" s="72"/>
       <c r="U9" s="10">
         <f t="shared" si="3"/>
         <v>37940</v>
@@ -5914,7 +5914,7 @@
       <c r="S10" s="19">
         <v>31680</v>
       </c>
-      <c r="T10" s="57"/>
+      <c r="T10" s="72"/>
       <c r="U10" s="10">
         <f t="shared" si="3"/>
         <v>36920</v>
@@ -6012,7 +6012,7 @@
       <c r="S11" s="19">
         <v>28670</v>
       </c>
-      <c r="T11" s="57"/>
+      <c r="T11" s="72"/>
       <c r="U11" s="10">
         <f t="shared" si="3"/>
         <v>33900</v>
@@ -6118,7 +6118,7 @@
       <c r="S12" s="19">
         <v>0</v>
       </c>
-      <c r="T12" s="57"/>
+      <c r="T12" s="72"/>
       <c r="U12" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6203,7 +6203,7 @@
       <c r="S13" s="19">
         <v>0</v>
       </c>
-      <c r="T13" s="57"/>
+      <c r="T13" s="72"/>
       <c r="U13" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6284,7 +6284,7 @@
       <c r="S14" s="19">
         <v>0</v>
       </c>
-      <c r="T14" s="57"/>
+      <c r="T14" s="72"/>
       <c r="U14" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6369,7 +6369,7 @@
       <c r="S15" s="19">
         <v>0</v>
       </c>
-      <c r="T15" s="57"/>
+      <c r="T15" s="72"/>
       <c r="U15" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6448,7 +6448,7 @@
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="57"/>
+      <c r="T16" s="72"/>
       <c r="U16" s="10">
         <f>ROUND(O16/24000*$AA$55,-1)</f>
         <v>41480</v>
@@ -6536,7 +6536,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="57"/>
+      <c r="T17" s="72"/>
       <c r="U17" s="10">
         <f t="shared" ref="U17:U20" si="12">ROUND(O17/24000*$AA$55,-1)</f>
         <v>40460</v>
@@ -6612,7 +6612,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="57"/>
+      <c r="T18" s="72"/>
       <c r="U18" s="10">
         <f t="shared" si="12"/>
         <v>42500</v>
@@ -6694,7 +6694,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
-      <c r="T19" s="57"/>
+      <c r="T19" s="72"/>
       <c r="U19" s="10">
         <f t="shared" si="12"/>
         <v>44520</v>
@@ -6785,7 +6785,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="57"/>
+      <c r="T20" s="72"/>
       <c r="U20" s="10">
         <f t="shared" si="12"/>
         <v>52610</v>
@@ -6860,7 +6860,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
-      <c r="T21" s="57"/>
+      <c r="T21" s="72"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -6871,21 +6871,21 @@
       </c>
     </row>
     <row r="22" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
       <c r="P22" s="46"/>
@@ -7554,21 +7554,21 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="17"/>
@@ -8278,28 +8278,28 @@
       <c r="T50" s="3"/>
     </row>
     <row r="51" spans="1:27" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="70"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="58"/>
+      <c r="Q51" s="58"/>
+      <c r="R51" s="58"/>
+      <c r="S51" s="58"/>
+      <c r="T51" s="71"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -8346,7 +8346,7 @@
       <c r="Q52" s="19"/>
       <c r="R52" s="19"/>
       <c r="S52" s="52"/>
-      <c r="T52" s="57"/>
+      <c r="T52" s="72"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -8393,7 +8393,7 @@
       <c r="Q53" s="19"/>
       <c r="R53" s="19"/>
       <c r="S53" s="52"/>
-      <c r="T53" s="57"/>
+      <c r="T53" s="72"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
@@ -8440,7 +8440,7 @@
       <c r="Q54" s="19"/>
       <c r="R54" s="19"/>
       <c r="S54" s="52"/>
-      <c r="T54" s="57"/>
+      <c r="T54" s="72"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -8487,7 +8487,7 @@
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
       <c r="S55" s="52"/>
-      <c r="T55" s="57"/>
+      <c r="T55" s="72"/>
       <c r="AA55">
         <v>24140</v>
       </c>
@@ -8537,7 +8537,7 @@
       <c r="Q56" s="19"/>
       <c r="R56" s="19"/>
       <c r="S56" s="52"/>
-      <c r="T56" s="57"/>
+      <c r="T56" s="72"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -8584,31 +8584,31 @@
       <c r="Q57" s="19"/>
       <c r="R57" s="19"/>
       <c r="S57" s="52"/>
-      <c r="T57" s="57"/>
+      <c r="T57" s="72"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="70"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="71"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -8657,7 +8657,7 @@
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
       <c r="S59" s="52"/>
-      <c r="T59" s="57"/>
+      <c r="T59" s="72"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
@@ -8706,24 +8706,24 @@
       <c r="Q60" s="19"/>
       <c r="R60" s="19"/>
       <c r="S60" s="52"/>
-      <c r="T60" s="57"/>
+      <c r="T60" s="72"/>
     </row>
     <row r="61" spans="1:27" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:27" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8965,21 +8965,21 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
     </row>
     <row r="70" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
@@ -9047,21 +9047,21 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
     </row>
     <row r="73" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -9124,21 +9124,21 @@
       <c r="M76" s="30"/>
     </row>
     <row r="77" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="58"/>
     </row>
     <row r="78" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
@@ -9201,21 +9201,21 @@
       <c r="M81" s="30"/>
     </row>
     <row r="82" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
     </row>
     <row r="83" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
@@ -9278,21 +9278,21 @@
       <c r="M86" s="30"/>
     </row>
     <row r="87" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="58"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
@@ -9355,21 +9355,21 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="58"/>
+      <c r="J92" s="58"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
@@ -9432,21 +9432,21 @@
       <c r="M96" s="30"/>
     </row>
     <row r="97" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="58"/>
+      <c r="J97" s="58"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
     </row>
     <row r="98" spans="1:13" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
@@ -9494,6 +9494,8 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="BD4:BD5"/>
     <mergeCell ref="BE4:BE5"/>
     <mergeCell ref="AO4:AO5"/>
@@ -9503,17 +9505,11 @@
     <mergeCell ref="BC4:BC5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="AY4:AY5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
     <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AN4:AN5"/>
     <mergeCell ref="AX4:AX5"/>
@@ -9522,6 +9518,8 @@
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A36:M36"/>
     <mergeCell ref="A61:M61"/>
@@ -9531,11 +9529,21 @@
     <mergeCell ref="A6:T6"/>
     <mergeCell ref="A51:T51"/>
     <mergeCell ref="A58:T58"/>
+    <mergeCell ref="T7:T21"/>
+    <mergeCell ref="T52:T57"/>
+    <mergeCell ref="T59:T60"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="A92:M92"/>
     <mergeCell ref="A97:M97"/>
     <mergeCell ref="A4:A5"/>
@@ -9552,14 +9560,6 @@
     <mergeCell ref="A72:M72"/>
     <mergeCell ref="A77:M77"/>
     <mergeCell ref="A87:M87"/>
-    <mergeCell ref="T7:T21"/>
-    <mergeCell ref="T52:T57"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
